--- a/data/energy efficiency.xlsx
+++ b/data/energy efficiency.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20390"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20394"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\개인폴더\2022 넥스트 새만금RE100\Code\data\220908\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NEXTGroup\Dropbox\모델 개발\RE100_Simulation_Model\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2792B7BD-14AC-4338-B465-3C3880A0738C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{983B2AEA-EC26-48CA-8161-B2CC5075D8CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14385" yWindow="2355" windowWidth="8295" windowHeight="8910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -416,8 +416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -498,55 +498,55 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>138564</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>138564</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>138564</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>138564</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>138564</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>138564</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>138564</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>138564</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>138564</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>138564</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>138564</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>143627</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>143627</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>143627</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>143627</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>143627</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>147988</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
